--- a/assessment/uploads/questions/Qstn_format.xlsx
+++ b/assessment/uploads/questions/Qstn_format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="41">
   <si>
     <t>s.no</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>optionc</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>image_name</t>
+  </si>
+  <si>
+    <t>test2.jpg</t>
+  </si>
+  <si>
+    <t>test3.jpg</t>
   </si>
 </sst>
 </file>
@@ -478,24 +490,25 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="23.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="4" customWidth="1"/>
     <col min="9" max="12" width="9.140625" style="4"/>
     <col min="13" max="13" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="4"/>
     <col min="16" max="16" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="17" max="17" width="12.7109375" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -547,7 +560,9 @@
       <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1163,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>24</v>
@@ -1191,6 +1206,9 @@
       </c>
       <c r="P14" s="4">
         <v>4</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1213,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>24</v>
@@ -1241,6 +1259,9 @@
       </c>
       <c r="P15" s="4">
         <v>4</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
